--- a/Lista de productos por Dimensión.xlsx
+++ b/Lista de productos por Dimensión.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6D5B3B-EBA8-417B-B7DB-D583A6E2F581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9457F3FA-EB97-4A83-A376-7D12B69B456D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{63CBBE29-6D0A-4D7C-8818-DA68EC5DD1B7}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
     <t>DATA RIESGO</t>
   </si>
@@ -73,9 +73,6 @@
     <t>DATATERRITORIO</t>
   </si>
   <si>
-    <t>Dimensión Institucional</t>
-  </si>
-  <si>
     <t>DATAEVALUACIÓN</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>DATAFOREST</t>
   </si>
   <si>
-    <t xml:space="preserve">Estadísticas de Incendios Forestales Región de la Araucanía </t>
-  </si>
-  <si>
     <t>DATARIESGO</t>
   </si>
   <si>
@@ -232,41 +226,35 @@
     <t>Geomática Agrícola</t>
   </si>
   <si>
-    <r>
-      <t>Estadisticas de cultivo Agrícola (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>versión power)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chile Agricola Gral (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>versión claudia)</t>
-    </r>
+    <t xml:space="preserve">Estadisticas de cultivo Agrícola </t>
+  </si>
+  <si>
+    <t>Instrumentos de Planificación Territorial</t>
+  </si>
+  <si>
+    <t>Ambiental</t>
+  </si>
+  <si>
+    <t>Evaluación de Programas e Instituciones del servicio público (1997-2020) - Chile</t>
+  </si>
+  <si>
+    <t>DATAVIVIENDA</t>
+  </si>
+  <si>
+    <t>Indice de Calidad de Vida Urbana</t>
+  </si>
+  <si>
+    <t>Índice Socio Material Territorial (ISMT) - Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadísticas de Incendios Forestales </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,26 +262,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -317,22 +292,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -357,6 +333,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -393,6 +375,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -441,8 +429,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Dimensión ">
@@ -465,7 +453,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -514,13 +502,13 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246062</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Colección">
@@ -543,7 +531,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -610,18 +598,18 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Dimensión " xr10:uid="{41C987FC-E482-430D-B334-45C132196EA9}" cache="SegmentaciónDeDatos_Dimensión" caption="Dimensión " columnCount="2" style="SlicerStyleLight6" rowHeight="241300"/>
-  <slicer name="Colección" xr10:uid="{E1B573AE-FE80-4D57-AE15-185925C6278F}" cache="SegmentaciónDeDatos_Colección" caption="Colección" columnCount="2" rowHeight="241300"/>
+  <slicer name="Colección" xr10:uid="{E1B573AE-FE80-4D57-AE15-185925C6278F}" cache="SegmentaciónDeDatos_Colección" caption="Colección" columnCount="3" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4C0C51E-96AE-4249-80F8-DED469BF36FA}" name="Tabla1" displayName="Tabla1" ref="B7:E47" totalsRowShown="0">
-  <autoFilter ref="B7:E47" xr:uid="{DEEA3545-C581-45C8-9ABF-C6D115E225DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4C0C51E-96AE-4249-80F8-DED469BF36FA}" name="Tabla1" displayName="Tabla1" ref="B7:E48" totalsRowShown="0">
+  <autoFilter ref="B7:E48" xr:uid="{DEEA3545-C581-45C8-9ABF-C6D115E225DA}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8B97F26E-325E-49AE-BCE0-7EAE36C48120}" name="Dimensión " dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{EA3ABBE7-4FE5-4F61-A616-61957CA87CD3}" name="Colección" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{503131C6-84A3-4C9E-9AA0-96DCEC40506C}" name="Producto" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8A7B732E-666A-439A-A25D-8E88ABC391D2}" name="otra dimensión " dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{503131C6-84A3-4C9E-9AA0-96DCEC40506C}" name="Producto" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{8A7B732E-666A-439A-A25D-8E88ABC391D2}" name="otra dimensión " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -924,495 +912,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF4E586-10C4-4274-BE05-79CC0E9150D2}">
-  <dimension ref="B7:E47"/>
+  <dimension ref="B7:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.453125" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>27</v>
+      <c r="C21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>28</v>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>29</v>
+      <c r="C23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>30</v>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>36</v>
+      <c r="C27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>37</v>
+      <c r="C28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>62</v>
+        <v>6</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
